--- a/_3 Develop/Design Calculations.xlsx
+++ b/_3 Develop/Design Calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OLS Level Test Project\_Project Management\_3 Develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllenProjects\PM_Folder\_3 Develop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E3B133-9318-4D92-AE40-10E615ED3D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0964801A-3E67-4BFC-BE6D-C80D10C3E2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="975" windowWidth="21600" windowHeight="11295" xr2:uid="{2C504F31-A930-42E4-806E-D82B5918461B}"/>
+    <workbookView xWindow="-110" yWindow="200" windowWidth="17550" windowHeight="11280" xr2:uid="{2C504F31-A930-42E4-806E-D82B5918461B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>LT3092</t>
   </si>
@@ -124,6 +124,75 @@
   </si>
   <si>
     <t xml:space="preserve">Test Well </t>
+  </si>
+  <si>
+    <t>Amps</t>
+  </si>
+  <si>
+    <t>Flow/gpm</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>GP-201-12L</t>
+  </si>
+  <si>
+    <t>1GPM @12V</t>
+  </si>
+  <si>
+    <t>min 14awg</t>
+  </si>
+  <si>
+    <t>Laser Calibration</t>
+  </si>
+  <si>
+    <t>Laser Slope</t>
+  </si>
+  <si>
+    <t>Laser_Offset</t>
+  </si>
+  <si>
+    <t>Test Prog</t>
+  </si>
+  <si>
+    <t>$TEST_TankControl18V7_Q01.vi</t>
+  </si>
+  <si>
+    <t>Level Fill</t>
+  </si>
+  <si>
+    <t>Level Drain</t>
+  </si>
+  <si>
+    <t>Vs= 24.5VDC</t>
+  </si>
+  <si>
+    <t>Eng Fluke 1460069</t>
+  </si>
+  <si>
+    <t>Iq = 0.0117A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>900 seconds</t>
+  </si>
+  <si>
+    <t>T1 Raw</t>
+  </si>
+  <si>
+    <t>T0 Raw</t>
+  </si>
+  <si>
+    <t>Calibrated</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Rate In/min</t>
   </si>
   <si>
     <r>
@@ -138,7 +207,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3/</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -148,50 +217,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>gal</t>
+      <t>/gal</t>
     </r>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>Amps</t>
-  </si>
-  <si>
-    <t>Δ inches /min</t>
-  </si>
-  <si>
-    <t>Flow/gpm</t>
-  </si>
-  <si>
-    <t>Fill Rate % @24Vdc</t>
-  </si>
-  <si>
-    <t>PUMP</t>
-  </si>
-  <si>
-    <t>GP-201-12L</t>
-  </si>
-  <si>
-    <t>1GPM @12V</t>
-  </si>
-  <si>
-    <t>min 14awg</t>
+    <t>Backflow gpH</t>
+  </si>
+  <si>
+    <t>Empty Fill</t>
+  </si>
+  <si>
+    <t>Full Fill</t>
+  </si>
+  <si>
+    <t>Empty Drian</t>
+  </si>
+  <si>
+    <t>Full Drain</t>
+  </si>
+  <si>
+    <t>Δ in/min</t>
+  </si>
+  <si>
+    <t>Speed % @24Vdc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +297,13 @@
       <color rgb="FF545454"/>
       <name val="Roboto Condensed"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -248,12 +319,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -262,7 +342,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -290,6 +370,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -309,7 +397,4043 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tank Level vx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pump Speed (Zoomed in)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$D$12:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$H$12:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Drian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Drain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$P$12:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="387903424"/>
+        <c:axId val="387904864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Empty Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$12:$D$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.0409999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3159999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5589999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.78800000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41399999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.7000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.0000000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-240A-4813-BF1D-6E3B9128DB24}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Full Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$12:$H$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.262</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5329999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.77300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-240A-4813-BF1D-6E3B9128DB24}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="387903424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> @24Vdc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387904864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="387904864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Δ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>in/min</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-300000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387903424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tank Level vx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pump Speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$D$12:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$H$12:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Drian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Drain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$P$12:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="387903424"/>
+        <c:axId val="387904864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Empty Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$12:$D$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.0409999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3159999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5589999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.78800000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41399999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.7000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.0000000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-371B-4A1A-8917-7DBBA3FA224E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Full Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$12:$H$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.262</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5329999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.77300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-371B-4A1A-8917-7DBBA3FA224E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="387903424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> @24Vdc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387904864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="387904864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Δ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>in/min</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387903424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tank Level vx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pump Speed (Zoomed in)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$D$12:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$H$12:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Drian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Drain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$P$12:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-240A-4813-BF1D-6E3B9128DB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="387903424"/>
+        <c:axId val="387904864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Empty Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$12:$D$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.0409999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3159999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5589999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.78800000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41399999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.7000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.0000000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-240A-4813-BF1D-6E3B9128DB24}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Full Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$12:$H$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.262</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5329999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.77300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-240A-4813-BF1D-6E3B9128DB24}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="387903424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> @24Vdc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387904864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="387904864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Δ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>in/min</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-300000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387903424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tank Level vx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pump Speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$D$12:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$H$12:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empty Drian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tank!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Drain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tank!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tank!$P$12:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-371B-4A1A-8917-7DBBA3FA224E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="387903424"/>
+        <c:axId val="387904864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Empty Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$D$12:$D$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.0409999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3159999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5589999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.78800000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41399999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.7000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.0000000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-371B-4A1A-8917-7DBBA3FA224E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Full Fill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tank!$H$12:$H$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.262</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5329999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.77300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.3000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-371B-4A1A-8917-7DBBA3FA224E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="387903424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> @24Vdc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387904864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="387904864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Δ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>in/min</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387903424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4391267" cy="2847959"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7873AA-895B-5C87-C24F-D528530B3F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4375150" y="3930650"/>
+          <a:ext cx="4391267" cy="2847959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PROCEDURE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Using</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> test program $TEST_TankControl18V7_Q01.vi, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1.  set the Timer Time to 30 seconds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2.  Set the level near EMPTY, Reset the timer.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3.  Set the direction to FILL and the Speed to the test level.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4. Push the Start button.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>5. Record the nominal current reading,  then the Rate when timer expires.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>6.  Rest the timer, set the direction to DRAIN and Speed.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. Push the Start button,repeat step 5.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Once the observations at EMPTY are finished, repeat with the starting at the </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>the FULL level and performing the DRAIN then the FILL evaluations.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Set the Tank to full and the Timer Time to 900 seconds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1. Record the raw Laser value at T0 then press the START Button.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2.  When the timer expires, record the raw laser value at T1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421EEC2A-E0C7-4715-0F34-1891BD5D0EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0393016A-E32A-4A7C-B1AF-75BBE4234195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2C29EC-2460-FE47-812A-D1DC1FEE6C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B266D7F-04C2-89E1-C8E4-CF6A2C294C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -862,26 +4986,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CC6128-03DC-4EA5-BA09-5B0E87270B26}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -889,7 +5014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -897,7 +5022,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -905,7 +5030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -914,85 +5039,617 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B7" s="13">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="D10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>100</v>
       </c>
+      <c r="B12">
+        <v>2.75</v>
+      </c>
+      <c r="C12">
+        <v>8.5</v>
+      </c>
+      <c r="D12">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <f>D12*$B$6/$B$7</f>
+        <v>2.2248008658008658</v>
+      </c>
+      <c r="F12">
+        <v>2.75</v>
+      </c>
+      <c r="G12">
+        <v>4.3</v>
+      </c>
+      <c r="H12">
+        <v>3.004</v>
+      </c>
+      <c r="I12" s="8">
+        <f>H12*$B$6/$B$7</f>
+        <v>2.1977316017316015</v>
+      </c>
+      <c r="J12">
+        <v>2.71</v>
+      </c>
+      <c r="K12">
+        <v>6.5</v>
+      </c>
+      <c r="L12">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="M12" s="8">
+        <f>L12*$B$6/$B$7</f>
+        <v>2.2079740259740257</v>
+      </c>
+      <c r="N12">
+        <v>2.72</v>
+      </c>
+      <c r="O12">
+        <v>2.75</v>
+      </c>
+      <c r="P12">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>P12*$B$6/$B$7</f>
+        <v>2.2204112554112556</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>75</v>
       </c>
+      <c r="B13">
+        <v>1.82</v>
+      </c>
+      <c r="C13">
+        <v>8.5</v>
+      </c>
+      <c r="D13">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E18" si="0">D13*$B$6/$B$7</f>
+        <v>1.6943896103896103</v>
+      </c>
+      <c r="F13">
+        <v>1.77</v>
+      </c>
+      <c r="G13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H13">
+        <v>2.262</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" ref="I13:I18" si="1">H13*$B$6/$B$7</f>
+        <v>1.6548831168831171</v>
+      </c>
+      <c r="J13">
+        <v>1.72</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13:M18" si="2">L13*$B$6/$B$7</f>
+        <v>1.700974025974026</v>
+      </c>
+      <c r="N13">
+        <v>1.71</v>
+      </c>
+      <c r="O13">
+        <v>2.75</v>
+      </c>
+      <c r="P13">
+        <v>2.327</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" ref="Q13:Q18" si="3">P13*$B$6/$B$7</f>
+        <v>1.7024372294372294</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>50</v>
       </c>
+      <c r="B14">
+        <v>1.03</v>
+      </c>
+      <c r="C14">
+        <v>8.5</v>
+      </c>
+      <c r="D14">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1405670995670996</v>
+      </c>
+      <c r="F14">
+        <v>1.01</v>
+      </c>
+      <c r="G14">
+        <v>3.9</v>
+      </c>
+      <c r="H14">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1215454545454546</v>
+      </c>
+      <c r="J14">
+        <v>1.01</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>1.508</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1032554112554114</v>
+      </c>
+      <c r="N14">
+        <v>0.97</v>
+      </c>
+      <c r="O14">
+        <v>2.75</v>
+      </c>
+      <c r="P14">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="3"/>
+        <v>1.1405670995670996</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>0.48</v>
+      </c>
+      <c r="C15">
+        <v>8.5</v>
+      </c>
+      <c r="D15">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57650216450216452</v>
+      </c>
+      <c r="F15">
+        <v>0.49</v>
+      </c>
+      <c r="G15">
+        <v>3.2</v>
+      </c>
+      <c r="H15">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.56552813852813855</v>
+      </c>
+      <c r="J15">
+        <v>0.47</v>
+      </c>
+      <c r="K15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L15">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.5874761904761906</v>
+      </c>
+      <c r="N15">
+        <v>0.47</v>
+      </c>
+      <c r="O15">
+        <v>2.75</v>
+      </c>
+      <c r="P15">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5823549783549784</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C16">
+        <v>8.5</v>
+      </c>
+      <c r="D16">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30288311688311687</v>
+      </c>
+      <c r="F16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G16">
+        <v>2.9</v>
+      </c>
+      <c r="H16">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30580952380952381</v>
+      </c>
+      <c r="J16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L16">
+        <v>0.439</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32117316017316017</v>
+      </c>
+      <c r="N16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O16">
+        <v>2.75</v>
+      </c>
+      <c r="P16">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.32556277056277055</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
+      <c r="B17">
+        <v>0.42</v>
+      </c>
+      <c r="C17">
+        <v>8.5</v>
+      </c>
+      <c r="D17">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>7.0965367965367968E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.42</v>
+      </c>
+      <c r="G17">
+        <v>2.8</v>
+      </c>
+      <c r="H17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="1"/>
+        <v>6.0722943722943727E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.42</v>
+      </c>
+      <c r="K17">
+        <v>8.4</v>
+      </c>
+      <c r="L17">
+        <v>0.115</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="2"/>
+        <v>8.4134199134199145E-2</v>
+      </c>
+      <c r="N17">
+        <v>0.42</v>
+      </c>
+      <c r="O17">
+        <v>2.75</v>
+      </c>
+      <c r="P17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="3"/>
+        <v>8.5597402597402603E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>30</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0.35</v>
+      </c>
+      <c r="C18">
+        <v>8.5</v>
+      </c>
+      <c r="D18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1948051948051947E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.35</v>
+      </c>
+      <c r="G18">
+        <v>2.78</v>
+      </c>
+      <c r="H18">
+        <v>1E-3</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>7.3160173160173169E-4</v>
+      </c>
+      <c r="J18">
+        <v>0.35</v>
+      </c>
+      <c r="K18">
+        <v>8.5</v>
+      </c>
+      <c r="L18">
+        <v>1E-3</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="2"/>
+        <v>7.3160173160173169E-4</v>
+      </c>
+      <c r="N18">
+        <v>0.34</v>
+      </c>
+      <c r="O18">
+        <v>2.75</v>
+      </c>
+      <c r="P18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="3"/>
+        <v>4.3164502164502162E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="19">
+        <v>45720</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>-0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>9.6029999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8">
+        <f>C30*B6/B7 *60</f>
+        <v>6.3639693506492234E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>6.8677999999999999</v>
+      </c>
+      <c r="C27">
+        <f>$B$22*B27+$B$23</f>
+        <v>2.7832745999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="21">
+        <v>6.8459000000000003</v>
+      </c>
+      <c r="C28" s="21">
+        <f>$B$22*B28+$B$23</f>
+        <v>2.8050212999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <f>C28-C27</f>
+        <v>2.1746699999999564E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="22">
+        <f>C29/900*60</f>
+        <v>1.4497799999999708E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1000,22 +5657,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBC02A7-3940-454D-9F05-4E2571E54D79}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +5680,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +5688,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +5696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +5705,7 @@
         <v>20999.999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +5713,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +5722,7 @@
         <v>14.666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +5730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +5739,7 @@
         <v>1636.3636363636363</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +5747,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +5756,7 @@
         <v>20.533333333333335</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +5765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1117,10 +5774,10 @@
         <v>0.48701298701298695</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +5785,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +5793,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +5802,7 @@
         <v>99099.099099099098</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +5811,7 @@
         <v>104384.38438438441</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1163,7 +5820,7 @@
         <v>214384.38438438441</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +5828,7 @@
         <v>104700</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1179,7 +5836,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +5844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +5856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1208,7 +5865,7 @@
         <v>14.659828562014544</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>

--- a/_3 Develop/Design Calculations.xlsx
+++ b/_3 Develop/Design Calculations.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllenProjects\PM_Folder\_3 Develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\PWC 8D Elevate OLS\OLS Level Test Project\_Project Management\_3 Develop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0964801A-3E67-4BFC-BE6D-C80D10C3E2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DAB779-2577-44ED-B15C-55FD304428F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="200" windowWidth="17550" windowHeight="11280" xr2:uid="{2C504F31-A930-42E4-806E-D82B5918461B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{2C504F31-A930-42E4-806E-D82B5918461B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -377,7 +377,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -918,7 +918,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tank!$H$11</c15:sqref>
@@ -944,7 +944,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tank!$A$12:$A$18</c15:sqref>
@@ -980,7 +980,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tank!$H$12:$H$18</c15:sqref>
@@ -1015,7 +1015,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-240A-4813-BF1D-6E3B9128DB24}"/>
                   </c:ext>
@@ -1913,7 +1913,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-371B-4A1A-8917-7DBBA3FA224E}"/>
                   </c:ext>
@@ -4320,16 +4320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4395,15 +4395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4988,25 +4988,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CC6128-03DC-4EA5-BA09-5B0E87270B26}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
       <c r="D10" s="16" t="s">
@@ -5089,7 +5089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>59</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>2.2204112554112556</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>75</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1.7024372294372294</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1.1405670995670996</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0.5823549783549784</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>0.32556277056277055</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>8.5597402597402603E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>4</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>4.3164502164502162E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>45720</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5563,12 +5563,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>-0.99299999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>9.6029999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>6.3639693506492234E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>48</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>2.7832745999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>2.8050212999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>50</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>2.1746699999999564E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>51</v>
       </c>
@@ -5657,22 +5657,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBC02A7-3940-454D-9F05-4E2571E54D79}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>20999.999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>14.666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>1636.3636363636363</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>20.533333333333335</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5774,10 +5774,10 @@
         <v>0.48701298701298695</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>99099.099099099098</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>104384.38438438441</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>214384.38438438441</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>104700</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>14.659828562014544</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>

--- a/_3 Develop/Design Calculations.xlsx
+++ b/_3 Develop/Design Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\PWC 8D Elevate OLS\OLS Level Test Project\_Project Management\_3 Develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OLS Level Test Project\_Project Management\_3 Develop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DAB779-2577-44ED-B15C-55FD304428F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBEBE30-5746-4B4E-B7F6-60136C1154F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{2C504F31-A930-42E4-806E-D82B5918461B}"/>
+    <workbookView xWindow="3495" yWindow="975" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2C504F31-A930-42E4-806E-D82B5918461B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>LT3092</t>
   </si>
@@ -240,6 +240,24 @@
   </si>
   <si>
     <t>Speed % @24Vdc</t>
+  </si>
+  <si>
+    <t>Vset</t>
+  </si>
+  <si>
+    <t>Rset</t>
+  </si>
+  <si>
+    <t>U1-A</t>
+  </si>
+  <si>
+    <t>U1-B</t>
+  </si>
+  <si>
+    <t>I actual</t>
+  </si>
+  <si>
+    <t>I spec</t>
   </si>
 </sst>
 </file>
@@ -342,7 +360,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -378,6 +396,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4557,7 +4576,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>36870</xdr:colOff>
+      <xdr:colOff>17820</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>36417</xdr:rowOff>
     </xdr:to>
@@ -5658,45 +5677,75 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="H2" s="23">
+        <v>45729</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.4E-2</v>
       </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <f>I4*0.00001</f>
+        <v>0.22170000000000001</v>
+      </c>
+      <c r="J3">
+        <f>J4*0.00001</f>
+        <v>0.22290000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4">
+        <v>22170</v>
+      </c>
+      <c r="J4">
+        <v>22290</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5704,16 +5753,36 @@
         <f>B3*B4/B2</f>
         <v>20999.999999999996</v>
       </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>15.09</v>
+      </c>
+      <c r="J5">
+        <v>15.41</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>22000</v>
       </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>I3/I5+0.00001</f>
+        <v>1.4701848906560636E-2</v>
+      </c>
+      <c r="J6">
+        <f>J3/J5+0.00001</f>
+        <v>1.4474633354964309E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -5721,8 +5790,17 @@
         <f>B6*B2/B4*1000</f>
         <v>14.666666666666668</v>
       </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7">
+        <v>1.4239999999999999E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.3979999999999999E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5730,7 +5808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5738,8 +5816,22 @@
         <f>B9/B7*1000</f>
         <v>1636.3636363636363</v>
       </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <v>14.7</v>
+      </c>
+      <c r="J10">
+        <f>I10*0.99</f>
+        <v>14.552999999999999</v>
+      </c>
+      <c r="K10">
+        <f>I10*1.01</f>
+        <v>14.847</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5747,7 +5839,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5755,8 +5847,12 @@
         <f>B7*B11/1000</f>
         <v>20.533333333333335</v>
       </c>
+      <c r="J12">
+        <f>14726-I4</f>
+        <v>-7444</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5765,7 +5861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
